--- a/modify_this.xlsx
+++ b/modify_this.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duckie/Documents/code/roster generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23CDBEF3-6172-A141-96AE-8FCEE00D447B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC12BD86-FFC0-D54B-AA4D-EE3673292FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18660" yWindow="7440" windowWidth="28040" windowHeight="17440" xr2:uid="{AFBAB9E0-74F4-BC4B-AE02-89067BEFCABA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="27">
   <si>
     <t>Employee</t>
   </si>
@@ -114,7 +114,10 @@
     <t>HH</t>
   </si>
   <si>
-    <t>CS</t>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>Jess</t>
   </si>
 </sst>
 </file>
@@ -486,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DDCE8F-EE56-1E42-B381-4F32D2DA597A}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -694,7 +697,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -749,6 +752,16 @@
       </c>
       <c r="G13" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -761,7 +774,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -843,7 +856,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -851,7 +864,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
